--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112327.0297435444</v>
+        <v>20059952.67638701</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112327.0297435444</v>
+        <v>20059952.67638701</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55921.42037233882</v>
+        <v>7050987.420706445</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55921.42037233882</v>
+        <v>7050987.420706445</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494111481.062821</v>
+        <v>52971165.25922969</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11808.92188363918</v>
+        <v>1185769.244813991</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22910.11830610534</v>
+        <v>2264088.244914006</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34007.83028412703</v>
+        <v>3341875.867236243</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45770.3000244661</v>
+        <v>4327392.804783131</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56840.95424837038</v>
+        <v>5408754.523557142</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67886.1105647634</v>
+        <v>6493443.185189123</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78931.26688115641</v>
+        <v>7578131.8468211</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89976.42319754942</v>
+        <v>8662820.508453075</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101797.7153952937</v>
+        <v>9637243.259716939</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112562.473977087</v>
+        <v>10756057.76342399</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122381.8850203665</v>
+        <v>11807187.67369058</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>132885.5475691229</v>
+        <v>12962315.44391561</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>143389.2101178794</v>
+        <v>14117443.21414065</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>155483.7310631118</v>
+        <v>15094080.35614936</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170594.6426877723</v>
+        <v>15727271.85705253</v>
       </c>
     </row>
   </sheetData>
